--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1152,25 +1152,25 @@
   <dimension ref="C3:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6272727272727" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.7272727272727" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.7272727272727" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.2727272727273" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.7545454545455" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.87272727272727" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.725" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.725" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.275" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.7583333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75454545454545" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.75833333333333" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:10">
+    <row r="3" spans="3:10">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="13.5" spans="3:10">
+    <row r="4" spans="3:10">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="13.5" spans="3:10">
+    <row r="5" spans="3:10">
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -44,6 +44,9 @@
     <t>恢复时间</t>
   </si>
   <si>
+    <t>目标数量</t>
+  </si>
+  <si>
     <t>Des</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>CDTime</t>
+  </si>
+  <si>
+    <t>TargetCount</t>
   </si>
   <si>
     <t>int</t>
@@ -774,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,23 +789,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1152,93 +1164,99 @@
   <dimension ref="C3:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.725" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.725" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.275" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.7583333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.7272727272727" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.7272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.2727272727273" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.7545454545455" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.7272727272727" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.75454545454545" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10">
-      <c r="C3" s="4" t="s">
+    <row r="3" ht="13.5" spans="3:10">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="3:10">
-      <c r="C4" s="4" t="s">
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" ht="13.5" spans="3:10">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" ht="13.5" spans="3:10">
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:10">
       <c r="C6" s="6">
         <v>1001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6">
         <v>1001</v>
@@ -1246,19 +1264,21 @@
       <c r="G6" s="6">
         <v>500</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:7">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:8">
       <c r="C7" s="6">
         <v>1002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6">
         <v>1001</v>
@@ -1266,118 +1286,139 @@
       <c r="G7" s="6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:7">
-      <c r="C8" s="7">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:8">
+      <c r="C8" s="8">
         <v>1003</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8">
         <v>1002</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:7">
-      <c r="C9" s="7">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:8">
+      <c r="C9" s="8">
         <v>1004</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="8">
         <v>1002</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="3:7">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
       <c r="C10" s="6">
         <v>1005</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="8">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9">
         <v>1003</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="3:7">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
       <c r="C11" s="6">
         <v>1006</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8">
+        <v>21</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9">
         <v>1003</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="7">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="8">
         <v>1007</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10">
         <v>1004</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="7">
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="8">
         <v>1008</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="10">
         <v>1004</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="14" spans="3:7">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
       <c r="C14" s="6">
         <v>1009</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6">
         <v>10001</v>
@@ -1385,16 +1426,19 @@
       <c r="G14" s="6">
         <v>500</v>
       </c>
-    </row>
-    <row r="15" spans="3:7">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
       <c r="C15" s="6">
         <v>1010</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="6">
         <v>10001</v>
@@ -1402,50 +1446,59 @@
       <c r="G15" s="6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="7">
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="8">
         <v>1011</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="D16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="8">
         <v>10002</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>500</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="7">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="8">
         <v>1012</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="D17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="8">
         <v>10002</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="3:7">
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="6">
         <v>1013</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="6">
         <v>10003</v>
@@ -1453,22 +1506,28 @@
       <c r="G18" s="6">
         <v>500</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
       <c r="C19" s="6">
         <v>1014</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F19" s="6">
         <v>10003</v>
       </c>
       <c r="G19" s="6">
         <v>2000</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
